--- a/Data/materials.xlsx
+++ b/Data/materials.xlsx
@@ -62,7 +62,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -83,11 +83,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -146,289 +141,7 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFB3B3B3"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF004586"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:plotArea>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$E$2:$E$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>54943.66</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>89524.73</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>105654.56</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>116835.74</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>129034.97</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>132481.73</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:gapWidth val="100"/>
-        <c:overlap val="0"/>
-        <c:axId val="2754657"/>
-        <c:axId val="57316440"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="2754657"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="57316440"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="57316440"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2754657"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>36360</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>36000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>395280</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>24480</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame>
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name=""/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="5560560" y="198360"/>
-        <a:ext cx="5759640" cy="3239640"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -439,15 +152,15 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E16" activeCellId="0" sqref="E16"/>
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.6632653061224"/>
-    <col collapsed="false" hidden="false" max="4" min="2" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.1173469387755"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.2602040816326"/>
+    <col collapsed="false" hidden="false" max="4" min="2" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="14.8469387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -509,7 +222,7 @@
         <v>750</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>2400</v>
+        <v>2000</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>0.17</v>
@@ -600,11 +313,11 @@
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="0" t="n">
         <f aca="false">B4*C4*D4</f>
-        <v>306000</v>
+        <v>255000</v>
       </c>
       <c r="C12" s="0" t="n">
         <f aca="false">B4*C4</f>
-        <v>1800000</v>
+        <v>1500000</v>
       </c>
       <c r="E12" s="0" t="n">
         <f aca="false">E4/1000</f>
@@ -661,6 +374,5 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Data/materials.xlsx
+++ b/Data/materials.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="980" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t xml:space="preserve">material</t>
   </si>
@@ -53,6 +53,9 @@
   </si>
   <si>
     <t xml:space="preserve">engineering bricks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">.2 m concrete</t>
   </si>
 </sst>
 </file>
@@ -149,18 +152,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+      <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.2602040816326"/>
-    <col collapsed="false" hidden="false" max="4" min="2" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="14.8469387755102"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="36.8520408163265"/>
+    <col collapsed="false" hidden="false" max="4" min="2" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="14.5816326530612"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -364,6 +367,11 @@
       <c r="E15" s="0" t="n">
         <f aca="false">E7/1000</f>
         <v>132.48173</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
